--- a/mathTransformed/HMPSTT_(2016-09-18)_69_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-09-18)_69_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Morarji Desai Residential School MadanabaviHonnali</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Davangere</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S KanchugaranahalliChannagiri</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Govt. High School GoverahalliHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S ParagoduBagepalli</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Vivekananda High School NyamathiHonnali</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G G H S Channagiri</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>S R R H SchoolH M HalliJagalur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -672,6 +712,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>S V B H S KyasinakereHonnali</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Davangere</t>
         </is>
       </c>
@@ -699,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>S N H S ChigateriHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -726,6 +776,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G G H S Bagepalli</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -755,6 +810,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Sri Hucheshwar High School KamatgiHungund</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -782,6 +842,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Govt. P U College ChikkalagundiBilagi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -811,6 +876,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High School AnawalBadami</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -838,6 +908,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Hema vema High SchoolUgalawatBadami</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bagalakot</t>
         </is>
       </c>
@@ -867,6 +942,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt. High School BevinamattiHungunda</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Bagalakot</t>
         </is>
       </c>
@@ -896,6 +976,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H P S Chinchalakatti</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Badami</t>
         </is>
       </c>
@@ -911,7 +996,8 @@
           <t>Bagalkot.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>
@@ -940,6 +1026,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>S G H S TumbaHungund</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -967,6 +1058,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>H P S BinjawadagiHungund</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -996,6 +1092,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S ThimmampalliBagepalli</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1023,6 +1124,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S DarinayakanapalyaGowribidanur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -1050,6 +1156,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S TolamattiBilgi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bagalkote</t>
         </is>
       </c>
@@ -1077,6 +1188,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. High School BillurBagepalli</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -1104,6 +1220,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S BadagandiBilagi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1131,6 +1252,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt. High School H GopagondanahalliHonnali</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1158,6 +1284,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Govt. High School ChakaveluBagepalli</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -1185,6 +1316,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>National High School BelaguttiHonnali</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Davangere</t>
         </is>
       </c>
@@ -1212,6 +1348,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>S A H S KondadahalliChannagiri</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1239,6 +1380,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHirebadawadagiHungund</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Bangalkot</t>
         </is>
       </c>
@@ -1266,6 +1412,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>S S P U CollegeBilgi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1295,6 +1446,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Sri Maruthi PragathiHigh School MudaloduGowribidanur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1322,6 +1478,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S MuragamaleChintamani</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Chikkabalapur</t>
         </is>
       </c>
@@ -1349,6 +1510,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>K N C S S U School</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Uchangidurga</t>
         </is>
       </c>
@@ -1365,6 +1531,11 @@
         </is>
       </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>Harapanahalli</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Davanagere</t>
         </is>
@@ -1393,6 +1564,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G Hanumath Reddy Memorial Residential High SchoolJagalur town Jagalur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1420,6 +1596,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>S S R High SchoolBannikudoHonnali</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1447,6 +1628,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S ChiradoniChannagiri</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Davangere</t>
         </is>
       </c>
@@ -1474,6 +1660,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>S R M P P G H S MuthigiHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1503,6 +1694,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Sree Bheemeshwara High School YidagurGauribidanur</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -1530,6 +1726,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>S TJ G J C HirekogalurChannagiri</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1557,6 +1758,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Shree S B H S SulebhaviHunagund</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Bagalakot</t>
         </is>
       </c>
@@ -1586,6 +1792,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>S V P H S KatapurBadami</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1613,6 +1824,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G J C KariganurKathalagereChannagiri</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1640,6 +1856,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S YaralakatteJagalur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1667,6 +1888,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya (R M S A) Bagepalli</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -1694,6 +1920,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Pathi Adinaranaiah Ramalakshmamma High School MunganahalliChintamani</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1723,6 +1954,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>T K G M H S T GollahalliChintamani</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1750,6 +1986,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S PathapalyaBagepalli</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -1775,7 +2016,8 @@
           <t>RAVINDRA BABU N V</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>G H S Dodda Bommanahalli</t>
         </is>
@@ -1793,6 +2035,11 @@
         </is>
       </c>
       <c r="F52" t="inlineStr">
+        <is>
+          <t>Chintamani</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>Chikkaballapur</t>
         </is>
@@ -1821,6 +2068,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Upgraded Govt. High SchoolHoovinhalliHungud</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1848,6 +2100,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Venktesh High School GuledaguddaBadami</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Bagalakot</t>
         </is>
       </c>
@@ -1875,6 +2132,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S AmalazariBilagi</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1902,6 +2164,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>G H S Kolur (RC)Bilagi</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1929,6 +2196,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>Shri Kanchaneshwari H S GuledguddaBadami</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1956,6 +2228,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>G H S NamagundluGowribidanur</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -1983,6 +2260,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>G H S YagavakoteChintamani</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -2010,6 +2292,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>Sree Gurusiddeshwara High School BhidaraqereJagalur</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Davangere</t>
         </is>
       </c>
@@ -2037,6 +2324,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>H P S ChinnapurHungund</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Bagalakot</t>
         </is>
       </c>
@@ -2066,6 +2358,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>G H S KainakattiBadami</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -2093,6 +2390,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>G H S SonaganahalliGauribidanur</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -2122,6 +2424,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>G H P School NaraspurBadami</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Bagalkote</t>
         </is>
       </c>
@@ -2149,6 +2456,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>G H S ManchenahalliGauribidanur</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Chikkabalapur</t>
         </is>
       </c>
@@ -2176,6 +2488,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>Sri Ramakrishna Vidya Vardhaka High SchoolYenigadaleChintamani</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>Chillabalapur</t>
         </is>
       </c>
@@ -2203,6 +2520,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>M L A M P S No 1 Badami</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -2228,7 +2550,8 @@
           <t>THYAGARAJU N</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>GGJC Chintamani</t>
         </is>
@@ -2245,7 +2568,8 @@
           <t>Chickaballapura.</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Chickaballapura</t>
         </is>
@@ -2274,6 +2598,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>Govt. Girls High School Gudibande</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -2301,6 +2630,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>G H S MinakanagurkiGauribidanur</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>Chikkaballapur</t>
         </is>
       </c>
@@ -2328,6 +2662,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>Govt. High School JambaladinniHungund</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -2355,6 +2694,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>Govt. High SchoolMittemariBagepalli</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>CHikkaballapur</t>
         </is>
       </c>
@@ -2382,6 +2726,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>G H S HarakanaluHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -2408,6 +2757,11 @@
         </is>
       </c>
       <c r="F75" t="inlineStr">
+        <is>
+          <t>Govt. P U College (H S)IlkalHunagund</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-09-18)_69_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-09-18)_69_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bagalakot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bagalakot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Badami</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,6 @@
           <t>Bagalkot.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>Bagalkot</t>
@@ -1097,7 +1096,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1128,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1160,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bagalkote</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1192,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1256,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1288,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1352,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1384,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bangalkot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1450,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1482,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chikkabalapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1514,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Uchangidurga</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1536,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1568,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1600,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1664,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1698,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1730,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1762,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bagalakot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1828,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1860,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1924,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1958,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1990,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2016,10 +2015,9 @@
           <t>RAVINDRA BABU N V</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>G H S Dodda Bommanahalli</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2039,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2103,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Bagalakot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2231,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2263,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2327,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bagalakot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2393,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2427,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Bagalkote</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2459,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Chikkabalapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2491,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Chillabalapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2550,10 +2548,9 @@
           <t>THYAGARAJU N</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>GGJC Chintamani</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2568,10 +2565,9 @@
           <t>Chickaballapura.</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Chickaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2599,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2631,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Chikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2695,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>CHikkaballapur</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2727,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
